--- a/ABS Tech Case _ data.xlsx
+++ b/ABS Tech Case _ data.xlsx
@@ -3007,7 +3007,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3039,7 +3039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3060,10 +3060,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3392,14 +3395,14 @@
     <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -3418,7 +3421,7 @@
     <col min="40" max="40" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>147</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>151</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>163</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>166</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>171</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>174</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>181</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
         <v>187</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
         <v>193</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>196</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
         <v>200</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
         <v>203</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
         <v>207</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
         <v>215</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1" t="s">
         <v>218</v>
       </c>
